--- a/api/test/test_data.xlsx
+++ b/api/test/test_data.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Ref</t>
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>1/08/2018</t>
   </si>
 </sst>
 </file>
@@ -360,52 +366,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>123</v>
       </c>
       <c r="B2">
         <v>2000</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>251</v>
       </c>
       <c r="B3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>125</v>
-      </c>
-      <c r="B4">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>282</v>
-      </c>
-      <c r="B5">
-        <v>4000</v>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/api/test/test_data.xlsx
+++ b/api/test/test_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flat\api\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F3AF830-7610-453C-85E2-685662D39D5D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Ref</t>
   </si>
@@ -29,11 +35,14 @@
   <si>
     <t>1/08/2018</t>
   </si>
+  <si>
+    <t>7/08/2018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,6 +83,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -122,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -155,9 +167,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +219,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,11 +411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,13 +453,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>222</v>
+      </c>
+      <c r="B4">
+        <v>1500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -425,7 +482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/api/test/test_data.xlsx
+++ b/api/test/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flat\api\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F3AF830-7610-453C-85E2-685662D39D5D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9885D33D-6158-4506-B255-ACD115F52FC8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,10 +415,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -433,7 +437,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>123</v>
+        <v>2020</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -444,7 +448,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>251</v>
+        <v>2019</v>
       </c>
       <c r="B3">
         <v>2500</v>
@@ -455,7 +459,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>222</v>
+        <v>2018</v>
       </c>
       <c r="B4">
         <v>1500</v>

--- a/api/test/test_data.xlsx
+++ b/api/test/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flat\api\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9885D33D-6158-4506-B255-ACD115F52FC8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{478566CC-D3EB-4CFC-87CC-E12B65B1438B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -451,7 +451,7 @@
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
